--- a/public/assets/excel/receipt.xlsx
+++ b/public/assets/excel/receipt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\StockManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\StockManager\public\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C84311-0E11-4A36-AE59-DF23B2E9EC5D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA85C60B-A557-4F95-9CE8-CC029F699956}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,15 +143,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,21 +536,25 @@
       <c r="E4" t="s">
         <v>1</v>
       </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>2</v>
       </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
       </c>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
+      <c r="C9" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -553,138 +575,141 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="9"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>8</v>
       </c>
+      <c r="F35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
